--- a/iterationsNORMAL/iter_6/data.xlsx
+++ b/iterationsNORMAL/iter_6/data.xlsx
@@ -453,1652 +453,1652 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-18.18855017144817</v>
+        <v>-29.1710161624002</v>
       </c>
       <c r="B2" t="n">
-        <v>-23.19883505378808</v>
+        <v>-37.55328910865057</v>
       </c>
       <c r="C2" t="n">
-        <v>28.89377103026483</v>
+        <v>8.549953192437284</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-10.77792601316184</v>
+        <v>42.74756685278108</v>
       </c>
       <c r="B3" t="n">
-        <v>11.39665161609241</v>
+        <v>-1.427542919263453</v>
       </c>
       <c r="C3" t="n">
-        <v>33.71458315606763</v>
+        <v>-13.16943849567971</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>40.55289607941472</v>
+        <v>-24.79620652796009</v>
       </c>
       <c r="B4" t="n">
-        <v>-29.87317767641334</v>
+        <v>-7.263540628309638</v>
       </c>
       <c r="C4" t="n">
-        <v>40.29494520627883</v>
+        <v>-24.65349996610241</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-3.297348057410318</v>
+        <v>-34.02621794258777</v>
       </c>
       <c r="B5" t="n">
-        <v>-25.63100846671423</v>
+        <v>6.059175337572167</v>
       </c>
       <c r="C5" t="n">
-        <v>34.9160829165101</v>
+        <v>-30.71522046123276</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8.302995390295642</v>
+        <v>14.2253375403445</v>
       </c>
       <c r="B6" t="n">
-        <v>-20.10729629710266</v>
+        <v>20.81611737469644</v>
       </c>
       <c r="C6" t="n">
-        <v>2.508119764443148</v>
+        <v>27.92808783026923</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-36.06315680356889</v>
+        <v>28.65224580605492</v>
       </c>
       <c r="B7" t="n">
-        <v>-17.82526973806464</v>
+        <v>39.58414282638294</v>
       </c>
       <c r="C7" t="n">
-        <v>-26.27978170143347</v>
+        <v>-31.72854011936226</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>56.74333294986966</v>
+        <v>16.11538580869213</v>
       </c>
       <c r="B8" t="n">
-        <v>43.816385317551</v>
+        <v>17.88154038816909</v>
       </c>
       <c r="C8" t="n">
-        <v>-13.02532769136358</v>
+        <v>38.79069831197837</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-23.70665325724951</v>
+        <v>-29.44475311606637</v>
       </c>
       <c r="B9" t="n">
-        <v>-11.39326019003692</v>
+        <v>22.45552955064596</v>
       </c>
       <c r="C9" t="n">
-        <v>49.95945565344155</v>
+        <v>25.84632320210186</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-9.448287135640223</v>
+        <v>-28.89976425971535</v>
       </c>
       <c r="B10" t="n">
-        <v>-29.62018148670552</v>
+        <v>29.6847535397696</v>
       </c>
       <c r="C10" t="n">
-        <v>-19.88677703393961</v>
+        <v>-35.23286615145276</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-28.41860902984306</v>
+        <v>-36.23490754317611</v>
       </c>
       <c r="B11" t="n">
-        <v>-16.8951449077326</v>
+        <v>-22.9514921216671</v>
       </c>
       <c r="C11" t="n">
-        <v>44.84054859935785</v>
+        <v>-43.16525981882546</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-16.31200031490248</v>
+        <v>-28.85311608412782</v>
       </c>
       <c r="B12" t="n">
-        <v>-31.28109307489535</v>
+        <v>27.76874473251901</v>
       </c>
       <c r="C12" t="n">
-        <v>2.382985043573453</v>
+        <v>18.44958378421581</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-17.14599684043012</v>
+        <v>16.85587836507873</v>
       </c>
       <c r="B13" t="n">
-        <v>35.68634437109871</v>
+        <v>34.55876282960782</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45172067921381</v>
+        <v>-29.21843264573033</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>35.97344717780729</v>
+        <v>15.1344864563923</v>
       </c>
       <c r="B14" t="n">
-        <v>-25.98408034690732</v>
+        <v>37.70355068700496</v>
       </c>
       <c r="C14" t="n">
-        <v>13.17293144371924</v>
+        <v>-21.55479189978397</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>34.47406028395718</v>
+        <v>15.12197603596959</v>
       </c>
       <c r="B15" t="n">
-        <v>42.51375312563847</v>
+        <v>35.45211145783592</v>
       </c>
       <c r="C15" t="n">
-        <v>54.41109930986504</v>
+        <v>5.435456223446283</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>42.79991638288661</v>
+        <v>26.82655951084562</v>
       </c>
       <c r="B16" t="n">
-        <v>-14.87460324267409</v>
+        <v>4.463890662449491</v>
       </c>
       <c r="C16" t="n">
-        <v>-13.21283427670537</v>
+        <v>28.34438170608657</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-8.092649450170573</v>
+        <v>-24.25325434364565</v>
       </c>
       <c r="B17" t="n">
-        <v>6.809799289844431</v>
+        <v>23.23537139232518</v>
       </c>
       <c r="C17" t="n">
-        <v>13.04113091535288</v>
+        <v>-27.11060139849404</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>29.78446711983866</v>
+        <v>27.01980490162886</v>
       </c>
       <c r="B18" t="n">
-        <v>45.66544788382771</v>
+        <v>24.24103604965929</v>
       </c>
       <c r="C18" t="n">
-        <v>60.47152930839501</v>
+        <v>-28.48258134538335</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-37.51111522494823</v>
+        <v>-25.31882142176401</v>
       </c>
       <c r="B19" t="n">
-        <v>12.86807727356861</v>
+        <v>-15.959927153509</v>
       </c>
       <c r="C19" t="n">
-        <v>-34.35129183786457</v>
+        <v>27.95030456983525</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-17.18469361877212</v>
+        <v>-18.87046655860057</v>
       </c>
       <c r="B20" t="n">
-        <v>-14.7667934997829</v>
+        <v>-16.99360673799896</v>
       </c>
       <c r="C20" t="n">
-        <v>-23.7688181603551</v>
+        <v>22.30156153998885</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.9566516319275151</v>
+        <v>21.63287341266917</v>
       </c>
       <c r="B21" t="n">
-        <v>43.68612873166828</v>
+        <v>-24.30468119991414</v>
       </c>
       <c r="C21" t="n">
-        <v>-33.25590712219298</v>
+        <v>-25.60136843359316</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>63.29098208350161</v>
+        <v>5.366120783088158</v>
       </c>
       <c r="B22" t="n">
-        <v>-7.100369932051404</v>
+        <v>11.1791448791753</v>
       </c>
       <c r="C22" t="n">
-        <v>-6.042707125697331</v>
+        <v>27.46315614995602</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-30.1894467217037</v>
+        <v>-24.22238582052782</v>
       </c>
       <c r="B23" t="n">
-        <v>-30.26640808952894</v>
+        <v>24.65046091314557</v>
       </c>
       <c r="C23" t="n">
-        <v>-22.30879656811772</v>
+        <v>-16.06054557747803</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>39.81457316412399</v>
+        <v>-32.35361610106794</v>
       </c>
       <c r="B24" t="n">
-        <v>-27.99041835876721</v>
+        <v>29.94607921998549</v>
       </c>
       <c r="C24" t="n">
-        <v>-30.65001504631116</v>
+        <v>35.47583490143391</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-33.74954799643093</v>
+        <v>-30.3269809155234</v>
       </c>
       <c r="B25" t="n">
-        <v>-20.92178847778218</v>
+        <v>-24.121439945203</v>
       </c>
       <c r="C25" t="n">
-        <v>25.42856946678373</v>
+        <v>36.14773370707192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-33.49874922251878</v>
+        <v>-23.28782204715444</v>
       </c>
       <c r="B26" t="n">
-        <v>32.66008050296758</v>
+        <v>-23.4285598865694</v>
       </c>
       <c r="C26" t="n">
-        <v>-23.33982692715443</v>
+        <v>-36.10081898101809</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>42.77060255020525</v>
+        <v>-31.07135133546774</v>
       </c>
       <c r="B27" t="n">
-        <v>42.81275552043321</v>
+        <v>28.19987356948067</v>
       </c>
       <c r="C27" t="n">
-        <v>-19.66218779001199</v>
+        <v>-17.01276937170477</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-36.88730633781888</v>
+        <v>-36.35500468399766</v>
       </c>
       <c r="B28" t="n">
-        <v>43.51767302108455</v>
+        <v>34.5658360957331</v>
       </c>
       <c r="C28" t="n">
-        <v>11.57925931405637</v>
+        <v>-31.55431399027208</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>30.63517278393032</v>
+        <v>-38.98676636899542</v>
       </c>
       <c r="B29" t="n">
-        <v>-13.78664277466595</v>
+        <v>-23.75171845741896</v>
       </c>
       <c r="C29" t="n">
-        <v>29.26398941395856</v>
+        <v>-24.87714039703888</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-22.71846268391413</v>
+        <v>11.00711037942567</v>
       </c>
       <c r="B30" t="n">
-        <v>-18.23959124635109</v>
+        <v>-27.68631197193513</v>
       </c>
       <c r="C30" t="n">
-        <v>-23.83747560743972</v>
+        <v>-14.62746714697367</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-22.47825996819505</v>
+        <v>-14.73924479561593</v>
       </c>
       <c r="B31" t="n">
-        <v>23.45073733832461</v>
+        <v>-24.61034328484062</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.85993014655667</v>
+        <v>23.81108486788757</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-2.986627788724956</v>
+        <v>41.82126046639181</v>
       </c>
       <c r="B32" t="n">
-        <v>-15.71076939017929</v>
+        <v>18.82805177151346</v>
       </c>
       <c r="C32" t="n">
-        <v>31.63980660291797</v>
+        <v>8.50412469437517</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>19.2878071269887</v>
+        <v>18.35562746104962</v>
       </c>
       <c r="B33" t="n">
-        <v>-25.28464197455317</v>
+        <v>25.65277479550324</v>
       </c>
       <c r="C33" t="n">
-        <v>-32.8068848627938</v>
+        <v>32.90159247654727</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-29.66466025509023</v>
+        <v>3.990214653759485</v>
       </c>
       <c r="B34" t="n">
-        <v>-29.27321368430486</v>
+        <v>-20.68184268972385</v>
       </c>
       <c r="C34" t="n">
-        <v>-35.67389451089727</v>
+        <v>27.67963032710534</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-15.89937022944185</v>
+        <v>25.41682385414664</v>
       </c>
       <c r="B35" t="n">
-        <v>-21.41376571215109</v>
+        <v>-22.58425740036988</v>
       </c>
       <c r="C35" t="n">
-        <v>-25.81635216541822</v>
+        <v>-30.53141452089628</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-36.8616129298499</v>
+        <v>24.37113100506784</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.3242227899025312</v>
+        <v>-25.12046201851274</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.77229884789561</v>
+        <v>-29.31694558164391</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-20.81242748874282</v>
+        <v>-5.189438903745453</v>
       </c>
       <c r="B37" t="n">
-        <v>-27.30644711292914</v>
+        <v>-25.33190148376689</v>
       </c>
       <c r="C37" t="n">
-        <v>-23.44971305493023</v>
+        <v>34.96039508965657</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>34.18118616673053</v>
+        <v>19.06969689038549</v>
       </c>
       <c r="B38" t="n">
-        <v>33.57509191411923</v>
+        <v>18.55959498105562</v>
       </c>
       <c r="C38" t="n">
-        <v>-5.245772059255836</v>
+        <v>-31.93017532930365</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-28.56466488997797</v>
+        <v>-23.07910035061248</v>
       </c>
       <c r="B39" t="n">
-        <v>-29.64818652502174</v>
+        <v>38.76276022922984</v>
       </c>
       <c r="C39" t="n">
-        <v>33.58026857119348</v>
+        <v>22.52737489272432</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-14.77354078813222</v>
+        <v>-25.56064246796409</v>
       </c>
       <c r="B40" t="n">
-        <v>18.21871508696233</v>
+        <v>-30.3656540421219</v>
       </c>
       <c r="C40" t="n">
-        <v>-31.92633571549349</v>
+        <v>-22.47716334448834</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>14.85650810326343</v>
+        <v>31.41983721308628</v>
       </c>
       <c r="B41" t="n">
-        <v>39.60067471089579</v>
+        <v>27.05551628960881</v>
       </c>
       <c r="C41" t="n">
-        <v>-7.782969639443307</v>
+        <v>-45.02282190723073</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-13.84435838163251</v>
+        <v>-13.39779619099377</v>
       </c>
       <c r="B42" t="n">
-        <v>-6.094795692891632</v>
+        <v>-14.36583452402305</v>
       </c>
       <c r="C42" t="n">
-        <v>-13.38428082522108</v>
+        <v>39.04901280716423</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-28.15721396542471</v>
+        <v>23.04931835837782</v>
       </c>
       <c r="B43" t="n">
-        <v>-38.44507863033949</v>
+        <v>-15.85602889219462</v>
       </c>
       <c r="C43" t="n">
-        <v>-16.61620424814708</v>
+        <v>28.32576283115479</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-29.44743822036194</v>
+        <v>20.16707276450628</v>
       </c>
       <c r="B44" t="n">
-        <v>-15.94231730997622</v>
+        <v>-16.18980090744888</v>
       </c>
       <c r="C44" t="n">
-        <v>28.96932722795446</v>
+        <v>-22.81559776599796</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>42.4617014620089</v>
+        <v>29.90382620568808</v>
       </c>
       <c r="B45" t="n">
-        <v>15.48277279072615</v>
+        <v>17.10593465060448</v>
       </c>
       <c r="C45" t="n">
-        <v>-8.580802016077744</v>
+        <v>-38.16515834468463</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-29.55281480139563</v>
+        <v>-29.97654536895411</v>
       </c>
       <c r="B46" t="n">
-        <v>28.98587794518789</v>
+        <v>42.11901501624651</v>
       </c>
       <c r="C46" t="n">
-        <v>20.24244348457512</v>
+        <v>29.03525416125608</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>46.09531960400074</v>
+        <v>20.55378503180404</v>
       </c>
       <c r="B47" t="n">
-        <v>-43.9940674371608</v>
+        <v>42.06291760924953</v>
       </c>
       <c r="C47" t="n">
-        <v>14.55583536722353</v>
+        <v>15.9986765960969</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.391345985310241</v>
+        <v>-17.16283045844983</v>
       </c>
       <c r="B48" t="n">
-        <v>25.17696820231347</v>
+        <v>-22.60612320057628</v>
       </c>
       <c r="C48" t="n">
-        <v>-21.34399695792009</v>
+        <v>30.29905921364884</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-20.04437994250502</v>
+        <v>-36.37229085728742</v>
       </c>
       <c r="B49" t="n">
-        <v>-45.95613534763411</v>
+        <v>-9.940327194872404</v>
       </c>
       <c r="C49" t="n">
-        <v>3.663393217368027</v>
+        <v>35.1175222982757</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.309459719701887</v>
+        <v>21.67203096132484</v>
       </c>
       <c r="B50" t="n">
-        <v>-10.36411138164325</v>
+        <v>14.99832371035717</v>
       </c>
       <c r="C50" t="n">
-        <v>-32.15037685786575</v>
+        <v>-23.01899066722378</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>43.93860296615929</v>
+        <v>38.94068718555842</v>
       </c>
       <c r="B51" t="n">
-        <v>-23.91416367477152</v>
+        <v>19.19332255772888</v>
       </c>
       <c r="C51" t="n">
-        <v>56.49687341699138</v>
+        <v>28.85593312308965</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>20.85252686953792</v>
+        <v>-35.0453364812431</v>
       </c>
       <c r="B52" t="n">
-        <v>-4.840869172486761</v>
+        <v>19.93364684324845</v>
       </c>
       <c r="C52" t="n">
-        <v>9.258670391769479</v>
+        <v>-26.30599953472259</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-17.54585520811148</v>
+        <v>-26.40026247875845</v>
       </c>
       <c r="B53" t="n">
-        <v>-6.576855314445209</v>
+        <v>-22.69854088315665</v>
       </c>
       <c r="C53" t="n">
-        <v>-30.49984891424347</v>
+        <v>23.61756926113412</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-29.24055213126402</v>
+        <v>-22.83103776303808</v>
       </c>
       <c r="B54" t="n">
-        <v>40.43489820400148</v>
+        <v>12.32158033384074</v>
       </c>
       <c r="C54" t="n">
-        <v>-2.360282260311332</v>
+        <v>29.43200917663653</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>16.68797085239636</v>
+        <v>-27.29848650251028</v>
       </c>
       <c r="B55" t="n">
-        <v>-27.71731835475725</v>
+        <v>-25.47357408075445</v>
       </c>
       <c r="C55" t="n">
-        <v>-22.78075749653194</v>
+        <v>34.99792802497512</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>17.84312717105667</v>
+        <v>-10.62606507983444</v>
       </c>
       <c r="B56" t="n">
-        <v>31.78800235651242</v>
+        <v>-20.40136587155629</v>
       </c>
       <c r="C56" t="n">
-        <v>-28.2959238205019</v>
+        <v>23.52135211102301</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>37.10310501308982</v>
+        <v>-26.75205863205046</v>
       </c>
       <c r="B57" t="n">
-        <v>25.1187890130864</v>
+        <v>-31.37120861573194</v>
       </c>
       <c r="C57" t="n">
-        <v>37.67804058888625</v>
+        <v>19.13856813861966</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-9.768281837909804</v>
+        <v>18.70028119064195</v>
       </c>
       <c r="B58" t="n">
-        <v>27.54432035110741</v>
+        <v>-15.73882268419603</v>
       </c>
       <c r="C58" t="n">
-        <v>46.02135019754299</v>
+        <v>30.44485512359705</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-25.69188568661678</v>
+        <v>-33.9053655729325</v>
       </c>
       <c r="B59" t="n">
-        <v>-47.10200822135729</v>
+        <v>22.8258271876882</v>
       </c>
       <c r="C59" t="n">
-        <v>25.13590201403887</v>
+        <v>-27.31664233660355</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-29.54131838668449</v>
+        <v>17.54476848604691</v>
       </c>
       <c r="B60" t="n">
-        <v>-41.49073210775845</v>
+        <v>32.82920412110158</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8077308789987295</v>
+        <v>13.88689328620008</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>70.5077685956156</v>
+        <v>-19.05324040293828</v>
       </c>
       <c r="B61" t="n">
-        <v>-31.29322878945841</v>
+        <v>18.49436060972276</v>
       </c>
       <c r="C61" t="n">
-        <v>-40.19953460189087</v>
+        <v>-24.74829106446036</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>50.98553979283756</v>
+        <v>28.20935900390053</v>
       </c>
       <c r="B62" t="n">
-        <v>-30.63231257612419</v>
+        <v>-11.16395990370639</v>
       </c>
       <c r="C62" t="n">
-        <v>-16.99424906128707</v>
+        <v>18.3407371357749</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-25.91151388893558</v>
+        <v>-32.73302980069638</v>
       </c>
       <c r="B63" t="n">
-        <v>-12.67661356760235</v>
+        <v>-27.55688899375568</v>
       </c>
       <c r="C63" t="n">
-        <v>-34.44234192063388</v>
+        <v>33.01292169739776</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-41.92949133165497</v>
+        <v>-27.70003898858913</v>
       </c>
       <c r="B64" t="n">
-        <v>29.20913527456188</v>
+        <v>-25.28306223185639</v>
       </c>
       <c r="C64" t="n">
-        <v>8.47519881361991</v>
+        <v>-28.40530779863918</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-28.17789876953925</v>
+        <v>-6.190829168277203</v>
       </c>
       <c r="B65" t="n">
-        <v>-6.325408547405203</v>
+        <v>14.32823095839636</v>
       </c>
       <c r="C65" t="n">
-        <v>67.197538064334</v>
+        <v>22.83156459415217</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-22.8440620052836</v>
+        <v>-11.96472106200178</v>
       </c>
       <c r="B66" t="n">
-        <v>-18.58302826947915</v>
+        <v>-21.37608189249345</v>
       </c>
       <c r="C66" t="n">
-        <v>-13.18122847952952</v>
+        <v>28.70166896542352</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-29.96391682850858</v>
+        <v>-19.86795321925594</v>
       </c>
       <c r="B67" t="n">
-        <v>25.09863532318983</v>
+        <v>-28.55657281842844</v>
       </c>
       <c r="C67" t="n">
-        <v>-34.08447810149471</v>
+        <v>20.47980699810132</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-19.14310235027396</v>
+        <v>-20.17746069511877</v>
       </c>
       <c r="B68" t="n">
-        <v>-24.39110572878767</v>
+        <v>30.10743213782787</v>
       </c>
       <c r="C68" t="n">
-        <v>-20.32596759149595</v>
+        <v>-22.43007965982203</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-31.88797812876384</v>
+        <v>20.8068713207788</v>
       </c>
       <c r="B69" t="n">
-        <v>52.38113083498056</v>
+        <v>-38.13877691986838</v>
       </c>
       <c r="C69" t="n">
-        <v>-3.5992697332322</v>
+        <v>37.37010360220162</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-30.8018248026035</v>
+        <v>-32.64426434204918</v>
       </c>
       <c r="B70" t="n">
-        <v>-19.57522659323848</v>
+        <v>-27.80773810482694</v>
       </c>
       <c r="C70" t="n">
-        <v>62.27597755728812</v>
+        <v>-24.48260432538487</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-30.32628702431127</v>
+        <v>24.79256858599132</v>
       </c>
       <c r="B71" t="n">
-        <v>5.332987820388612</v>
+        <v>21.08440905296978</v>
       </c>
       <c r="C71" t="n">
-        <v>-21.65900372844597</v>
+        <v>37.97620144501051</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-29.97025931117252</v>
+        <v>22.10748502684906</v>
       </c>
       <c r="B72" t="n">
-        <v>-14.48181272555477</v>
+        <v>16.27613268917023</v>
       </c>
       <c r="C72" t="n">
-        <v>38.21465743191983</v>
+        <v>39.14536795519895</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-22.07642797909709</v>
+        <v>-27.32275629990794</v>
       </c>
       <c r="B73" t="n">
-        <v>21.4754528016631</v>
+        <v>-27.52662180614779</v>
       </c>
       <c r="C73" t="n">
-        <v>-22.80578136087482</v>
+        <v>25.96486038827071</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>30.09737702088736</v>
+        <v>-32.05449262523994</v>
       </c>
       <c r="B74" t="n">
-        <v>70.88793363656458</v>
+        <v>-14.06793662429137</v>
       </c>
       <c r="C74" t="n">
-        <v>-17.9850010763253</v>
+        <v>-30.00674764030934</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-18.51920023648297</v>
+        <v>-37.67627548697616</v>
       </c>
       <c r="B75" t="n">
-        <v>17.9895481548417</v>
+        <v>26.58249458998785</v>
       </c>
       <c r="C75" t="n">
-        <v>-23.87619889738694</v>
+        <v>-26.61863304676049</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-2.269790516142002</v>
+        <v>31.52926753905765</v>
       </c>
       <c r="B76" t="n">
-        <v>-13.98202802473924</v>
+        <v>15.61035247706456</v>
       </c>
       <c r="C76" t="n">
-        <v>-32.3323367896478</v>
+        <v>-31.82288295483739</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>33.06510659592094</v>
+        <v>-28.34723213689454</v>
       </c>
       <c r="B77" t="n">
-        <v>19.55947325558988</v>
+        <v>-17.61535160459595</v>
       </c>
       <c r="C77" t="n">
-        <v>19.77221803633432</v>
+        <v>-8.996203104880617</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>7.562750170283369</v>
+        <v>21.5402843796283</v>
       </c>
       <c r="B78" t="n">
-        <v>-31.19832352965061</v>
+        <v>-16.69481013879591</v>
       </c>
       <c r="C78" t="n">
-        <v>-35.3906704104727</v>
+        <v>10.06597377903315</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-10.87275713988464</v>
+        <v>28.57628698125557</v>
       </c>
       <c r="B79" t="n">
-        <v>2.089101542878689</v>
+        <v>-34.64620810656357</v>
       </c>
       <c r="C79" t="n">
-        <v>13.48520900462105</v>
+        <v>-10.61456751596664</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>4.684279594450778</v>
+        <v>-14.17058691854375</v>
       </c>
       <c r="B80" t="n">
-        <v>74.03693613353464</v>
+        <v>22.71827195431379</v>
       </c>
       <c r="C80" t="n">
-        <v>38.38816665512056</v>
+        <v>-19.14751046366697</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-22.76012523107243</v>
+        <v>28.38810148557851</v>
       </c>
       <c r="B81" t="n">
-        <v>-27.63111739178842</v>
+        <v>-9.910792522419298</v>
       </c>
       <c r="C81" t="n">
-        <v>-31.13201198322473</v>
+        <v>-18.07145719151928</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>7.064555977364484</v>
+        <v>28.82858050835198</v>
       </c>
       <c r="B82" t="n">
-        <v>-38.74411966200777</v>
+        <v>-20.60744323906251</v>
       </c>
       <c r="C82" t="n">
-        <v>7.59637046246649</v>
+        <v>25.07105785284244</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-25.35077499834973</v>
+        <v>-37.635175444076</v>
       </c>
       <c r="B83" t="n">
-        <v>16.30343836375771</v>
+        <v>-21.71450989753292</v>
       </c>
       <c r="C83" t="n">
-        <v>-21.73646877878253</v>
+        <v>22.80480103009267</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-35.62000834775655</v>
+        <v>27.48750082841991</v>
       </c>
       <c r="B84" t="n">
-        <v>38.68246352094624</v>
+        <v>35.50326023449412</v>
       </c>
       <c r="C84" t="n">
-        <v>-32.84118093682447</v>
+        <v>21.37051586523927</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>23.27340391572335</v>
+        <v>-9.83481128603016</v>
       </c>
       <c r="B85" t="n">
-        <v>-24.36459940430009</v>
+        <v>14.4272354370292</v>
       </c>
       <c r="C85" t="n">
-        <v>-30.67208362823053</v>
+        <v>-33.59394615654405</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>40.0630612960747</v>
+        <v>-28.66818828472339</v>
       </c>
       <c r="B86" t="n">
-        <v>-9.460769604901916</v>
+        <v>-33.92067201915715</v>
       </c>
       <c r="C86" t="n">
-        <v>-16.5288228632349</v>
+        <v>-21.7979318593189</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>20.04791288917006</v>
+        <v>-27.23735926292379</v>
       </c>
       <c r="B87" t="n">
-        <v>-14.58999339076688</v>
+        <v>22.52197912725116</v>
       </c>
       <c r="C87" t="n">
-        <v>-32.6514421775538</v>
+        <v>27.80014604112008</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>51.05935324483751</v>
+        <v>20.03426766846233</v>
       </c>
       <c r="B88" t="n">
-        <v>-9.455243686133123</v>
+        <v>9.066749867234561</v>
       </c>
       <c r="C88" t="n">
-        <v>11.12178809029417</v>
+        <v>-24.81948102720856</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-0.1968314002512128</v>
+        <v>18.43142815466714</v>
       </c>
       <c r="B89" t="n">
-        <v>-23.80572267021984</v>
+        <v>31.05939489318095</v>
       </c>
       <c r="C89" t="n">
-        <v>-11.39630564516501</v>
+        <v>-25.58289860798812</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-28.68496052098894</v>
+        <v>-43.12074165541051</v>
       </c>
       <c r="B90" t="n">
-        <v>-24.11473561484876</v>
+        <v>-32.54747158014165</v>
       </c>
       <c r="C90" t="n">
-        <v>44.55542233624512</v>
+        <v>-37.50669667583544</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-26.5800070405506</v>
+        <v>44.77301345882493</v>
       </c>
       <c r="B91" t="n">
-        <v>70.45551676450334</v>
+        <v>9.578700372707338</v>
       </c>
       <c r="C91" t="n">
-        <v>48.35121165230793</v>
+        <v>-33.63142376005006</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-18.66231369708676</v>
+        <v>14.1790322747794</v>
       </c>
       <c r="B92" t="n">
-        <v>35.85144676743096</v>
+        <v>12.73624587342165</v>
       </c>
       <c r="C92" t="n">
-        <v>59.22634491363122</v>
+        <v>-32.63337049632781</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-25.5197714244264</v>
+        <v>28.45956741734695</v>
       </c>
       <c r="B93" t="n">
-        <v>55.43885560003724</v>
+        <v>-27.34046060757987</v>
       </c>
       <c r="C93" t="n">
-        <v>21.86120149830087</v>
+        <v>21.99452473124772</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>23.11015946137393</v>
+        <v>-33.84964932022223</v>
       </c>
       <c r="B94" t="n">
-        <v>-33.63043493048334</v>
+        <v>19.10932065484176</v>
       </c>
       <c r="C94" t="n">
-        <v>-27.98967828961955</v>
+        <v>23.5819546463735</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>39.64112832167627</v>
+        <v>22.21902691302073</v>
       </c>
       <c r="B95" t="n">
-        <v>48.39967261044325</v>
+        <v>7.401009878701107</v>
       </c>
       <c r="C95" t="n">
-        <v>18.62379977895094</v>
+        <v>15.71403341728706</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>54.25972981217959</v>
+        <v>-16.95897570993494</v>
       </c>
       <c r="B96" t="n">
-        <v>-28.35233366910068</v>
+        <v>-33.46493045564437</v>
       </c>
       <c r="C96" t="n">
-        <v>10.91070902230784</v>
+        <v>-32.60023155908834</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>24.89319627264988</v>
+        <v>-34.82282910633327</v>
       </c>
       <c r="B97" t="n">
-        <v>-21.11759369433576</v>
+        <v>-26.44336629700043</v>
       </c>
       <c r="C97" t="n">
-        <v>-17.72204901563855</v>
+        <v>-30.01054831535799</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-23.19323914798409</v>
+        <v>-20.99738574631571</v>
       </c>
       <c r="B98" t="n">
-        <v>46.50883615910656</v>
+        <v>30.10890383735284</v>
       </c>
       <c r="C98" t="n">
-        <v>-29.29328669623788</v>
+        <v>-22.70800138235558</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-22.98800462080827</v>
+        <v>-5.076225148553292</v>
       </c>
       <c r="B99" t="n">
-        <v>-25.52897173247731</v>
+        <v>28.46235551112929</v>
       </c>
       <c r="C99" t="n">
-        <v>53.80642281048915</v>
+        <v>-12.57277293084376</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-18.78466340955501</v>
+        <v>24.82421528995532</v>
       </c>
       <c r="B100" t="n">
-        <v>-19.87123234601376</v>
+        <v>25.54664904841406</v>
       </c>
       <c r="C100" t="n">
-        <v>-20.18775683024765</v>
+        <v>-29.57944646286326</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>43.44412386590001</v>
+        <v>-14.44002449034523</v>
       </c>
       <c r="B101" t="n">
-        <v>34.83109591064485</v>
+        <v>-38.38265383740317</v>
       </c>
       <c r="C101" t="n">
-        <v>-43.41555581801786</v>
+        <v>-29.87167485510045</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-25.44209682351569</v>
+        <v>30.10516683644925</v>
       </c>
       <c r="B102" t="n">
-        <v>-10.89026882146842</v>
+        <v>-25.66503771988927</v>
       </c>
       <c r="C102" t="n">
-        <v>-36.63755376260075</v>
+        <v>-14.72105232683155</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.7636406608409867</v>
+        <v>33.14972827179344</v>
       </c>
       <c r="B103" t="n">
-        <v>-14.20347034321005</v>
+        <v>20.97469425432428</v>
       </c>
       <c r="C103" t="n">
-        <v>-22.03484955875168</v>
+        <v>23.18006763747784</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-25.53239912645842</v>
+        <v>30.41871688088878</v>
       </c>
       <c r="B104" t="n">
-        <v>-17.14401676562519</v>
+        <v>-13.32666918910518</v>
       </c>
       <c r="C104" t="n">
-        <v>-20.86634589130241</v>
+        <v>-19.53952307877185</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>50.30381571558765</v>
+        <v>-32.81810970618261</v>
       </c>
       <c r="B105" t="n">
-        <v>-19.42756555215047</v>
+        <v>21.65017738855855</v>
       </c>
       <c r="C105" t="n">
-        <v>11.87919908821926</v>
+        <v>12.13782563520249</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-40.00774923327192</v>
+        <v>-19.86770312941416</v>
       </c>
       <c r="B106" t="n">
-        <v>-16.97451926018137</v>
+        <v>-37.99609692925338</v>
       </c>
       <c r="C106" t="n">
-        <v>-44.42492703949411</v>
+        <v>7.91416256845005</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-21.37973081930446</v>
+        <v>-29.47870015323982</v>
       </c>
       <c r="B107" t="n">
-        <v>-23.83461771020368</v>
+        <v>-31.33529170596132</v>
       </c>
       <c r="C107" t="n">
-        <v>-36.70999873383683</v>
+        <v>-29.49598274692803</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>13.09008211746974</v>
+        <v>-11.1584312812278</v>
       </c>
       <c r="B108" t="n">
-        <v>31.21802893452565</v>
+        <v>7.132806759403416</v>
       </c>
       <c r="C108" t="n">
-        <v>80.40778087000686</v>
+        <v>-35.9962990962367</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>49.10508672637346</v>
+        <v>30.53535477015155</v>
       </c>
       <c r="B109" t="n">
-        <v>1.294699922615118</v>
+        <v>32.34641542910012</v>
       </c>
       <c r="C109" t="n">
-        <v>-28.07962119696612</v>
+        <v>-21.5051183913152</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>5.439888056411029</v>
+        <v>19.67456417560977</v>
       </c>
       <c r="B110" t="n">
-        <v>-32.09741259960109</v>
+        <v>-15.53979282388429</v>
       </c>
       <c r="C110" t="n">
-        <v>8.070650635862229</v>
+        <v>15.92724667453866</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-13.77898127622578</v>
+        <v>-10.90690328772458</v>
       </c>
       <c r="B111" t="n">
-        <v>-36.74574156155906</v>
+        <v>-32.41640397361667</v>
       </c>
       <c r="C111" t="n">
-        <v>-32.94018260984485</v>
+        <v>-41.85182216176216</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-24.05217657918385</v>
+        <v>-20.41855268730624</v>
       </c>
       <c r="B112" t="n">
-        <v>8.174951567821337</v>
+        <v>42.97308072716763</v>
       </c>
       <c r="C112" t="n">
-        <v>-35.92314156763175</v>
+        <v>-53.94401507037723</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-29.03831526954811</v>
+        <v>-43.50673179261483</v>
       </c>
       <c r="B113" t="n">
-        <v>60.67583907301535</v>
+        <v>-11.09990679860476</v>
       </c>
       <c r="C113" t="n">
-        <v>-9.184297165691159</v>
+        <v>33.91888131756853</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>37.2595066476985</v>
+        <v>-17.3010165887304</v>
       </c>
       <c r="B114" t="n">
-        <v>34.78095436270012</v>
+        <v>21.5776585105997</v>
       </c>
       <c r="C114" t="n">
-        <v>5.42756497590182</v>
+        <v>-27.53150123599909</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-42.844929271278</v>
+        <v>-41.67906941279831</v>
       </c>
       <c r="B115" t="n">
-        <v>-40.60331574097937</v>
+        <v>-24.41592810172857</v>
       </c>
       <c r="C115" t="n">
-        <v>36.02773072484385</v>
+        <v>-28.53967656843009</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>4.514362676563621</v>
+        <v>37.38115407158759</v>
       </c>
       <c r="B116" t="n">
-        <v>-21.4267665927344</v>
+        <v>-12.6927712668578</v>
       </c>
       <c r="C116" t="n">
-        <v>12.55635126255952</v>
+        <v>20.89589398856955</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-24.50724114402361</v>
+        <v>38.52110794570486</v>
       </c>
       <c r="B117" t="n">
-        <v>-23.8817011800533</v>
+        <v>-30.67713506923268</v>
       </c>
       <c r="C117" t="n">
-        <v>-35.26817383679942</v>
+        <v>35.93230648537961</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-31.64662110675708</v>
+        <v>-24.34691021986851</v>
       </c>
       <c r="B118" t="n">
-        <v>41.17070998454476</v>
+        <v>-28.58916069803236</v>
       </c>
       <c r="C118" t="n">
-        <v>14.51500288128266</v>
+        <v>-26.88495442897261</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>41.32705768706452</v>
+        <v>16.15314011071568</v>
       </c>
       <c r="B119" t="n">
-        <v>-21.81428504705671</v>
+        <v>-31.70708563166096</v>
       </c>
       <c r="C119" t="n">
-        <v>10.76564657778518</v>
+        <v>33.83714843314942</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>19.71088443349584</v>
+        <v>-9.720941913039356</v>
       </c>
       <c r="B120" t="n">
-        <v>-22.36701734164312</v>
+        <v>10.40101825143999</v>
       </c>
       <c r="C120" t="n">
-        <v>-12.60423124050254</v>
+        <v>-34.60612914456183</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>33.19673037498453</v>
+        <v>-40.97659364164032</v>
       </c>
       <c r="B121" t="n">
-        <v>-16.87176690903938</v>
+        <v>-23.21001298474429</v>
       </c>
       <c r="C121" t="n">
-        <v>-15.79212731152801</v>
+        <v>-19.07469914160914</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-31.89890382464935</v>
+        <v>20.3984389010843</v>
       </c>
       <c r="B122" t="n">
-        <v>-26.95364329127996</v>
+        <v>11.52006819463304</v>
       </c>
       <c r="C122" t="n">
-        <v>-17.92510396197494</v>
+        <v>25.46152977478723</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>41.92395058458919</v>
+        <v>-31.73052712783134</v>
       </c>
       <c r="B123" t="n">
-        <v>21.51662101880388</v>
+        <v>-31.86413446109478</v>
       </c>
       <c r="C123" t="n">
-        <v>-39.07995942188317</v>
+        <v>-25.05993858847769</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-19.00594179177162</v>
+        <v>33.64858307005601</v>
       </c>
       <c r="B124" t="n">
-        <v>10.77740685717868</v>
+        <v>-30.80889788476962</v>
       </c>
       <c r="C124" t="n">
-        <v>-26.53096268810238</v>
+        <v>18.28785369466588</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-10.80736725191262</v>
+        <v>-0.6542029070844809</v>
       </c>
       <c r="B125" t="n">
-        <v>28.70709930256795</v>
+        <v>19.3411997766445</v>
       </c>
       <c r="C125" t="n">
-        <v>-11.13012634793477</v>
+        <v>31.99070789776311</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-31.54908851835154</v>
+        <v>13.21231444819727</v>
       </c>
       <c r="B126" t="n">
-        <v>-17.93306331404849</v>
+        <v>20.97016633955539</v>
       </c>
       <c r="C126" t="n">
-        <v>-3.960329984917713</v>
+        <v>-16.0589592137351</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-42.36092313700509</v>
+        <v>-26.50117483390723</v>
       </c>
       <c r="B127" t="n">
-        <v>-26.6497143023956</v>
+        <v>34.09881616850508</v>
       </c>
       <c r="C127" t="n">
-        <v>-31.85718329055627</v>
+        <v>-33.95604301989955</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>51.68693521759699</v>
+        <v>-19.47597478397449</v>
       </c>
       <c r="B128" t="n">
-        <v>55.07279324609942</v>
+        <v>32.8749526071677</v>
       </c>
       <c r="C128" t="n">
-        <v>27.15715329256043</v>
+        <v>-35.09045534631214</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>37.00644324303504</v>
+        <v>23.23943881264255</v>
       </c>
       <c r="B129" t="n">
-        <v>-19.65391665944013</v>
+        <v>-27.58403903664712</v>
       </c>
       <c r="C129" t="n">
-        <v>-20.35333603344411</v>
+        <v>-35.73778671722519</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-10.83099423095174</v>
+        <v>-24.11846085355031</v>
       </c>
       <c r="B130" t="n">
-        <v>31.86657721447537</v>
+        <v>27.05119486550599</v>
       </c>
       <c r="C130" t="n">
-        <v>69.1875258727426</v>
+        <v>15.87248830159938</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-27.12268164528653</v>
+        <v>-25.52691176757186</v>
       </c>
       <c r="B131" t="n">
-        <v>40.93242901541304</v>
+        <v>-26.68071814660172</v>
       </c>
       <c r="C131" t="n">
-        <v>-26.85295604578338</v>
+        <v>36.32706087837655</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>8.664523510068275</v>
+        <v>-20.70621592819793</v>
       </c>
       <c r="B132" t="n">
-        <v>-29.83347513713893</v>
+        <v>-28.71053679580643</v>
       </c>
       <c r="C132" t="n">
-        <v>-19.05383517376581</v>
+        <v>-34.8287678903602</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-21.95583087092262</v>
+        <v>-21.79457606533342</v>
       </c>
       <c r="B133" t="n">
-        <v>-10.25763420152039</v>
+        <v>-31.60765785867397</v>
       </c>
       <c r="C133" t="n">
-        <v>74.32541724073921</v>
+        <v>-15.41118772794742</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-19.59871008717094</v>
+        <v>-30.45186738772027</v>
       </c>
       <c r="B134" t="n">
-        <v>45.42297282634923</v>
+        <v>-32.74920954613552</v>
       </c>
       <c r="C134" t="n">
-        <v>36.82963912989241</v>
+        <v>-20.74632796327503</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>31.14914325519669</v>
+        <v>27.69936843185756</v>
       </c>
       <c r="B135" t="n">
-        <v>-29.54603845319122</v>
+        <v>-18.82231252936158</v>
       </c>
       <c r="C135" t="n">
-        <v>8.054416033815569</v>
+        <v>-38.03434428415783</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-22.98718984138899</v>
+        <v>9.517831638384729</v>
       </c>
       <c r="B136" t="n">
-        <v>46.61896477156449</v>
+        <v>-33.0678024130744</v>
       </c>
       <c r="C136" t="n">
-        <v>-8.725434125262765</v>
+        <v>-21.49087744102906</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-30.0156778939431</v>
+        <v>26.36502803934952</v>
       </c>
       <c r="B137" t="n">
-        <v>-8.700416393078175</v>
+        <v>27.19893160448844</v>
       </c>
       <c r="C137" t="n">
-        <v>-25.20915269380386</v>
+        <v>-29.39474766456688</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>40.18750725773963</v>
+        <v>22.06762087736586</v>
       </c>
       <c r="B138" t="n">
-        <v>62.1945843044079</v>
+        <v>18.86101174268538</v>
       </c>
       <c r="C138" t="n">
-        <v>-22.11058869101217</v>
+        <v>-18.15832573258923</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-32.15567557419368</v>
+        <v>29.61927753828129</v>
       </c>
       <c r="B139" t="n">
-        <v>30.97698501679509</v>
+        <v>11.59590744528931</v>
       </c>
       <c r="C139" t="n">
-        <v>-31.20092960518265</v>
+        <v>-41.56732801408123</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-30.80847864503113</v>
+        <v>-26.08880287818483</v>
       </c>
       <c r="B140" t="n">
-        <v>-24.25368241146563</v>
+        <v>-30.04733467594696</v>
       </c>
       <c r="C140" t="n">
-        <v>-16.12841032565951</v>
+        <v>-13.53763034175539</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>28.56154434408516</v>
+        <v>25.57142950654082</v>
       </c>
       <c r="B141" t="n">
-        <v>17.47865162783241</v>
+        <v>36.96594233956272</v>
       </c>
       <c r="C141" t="n">
-        <v>-32.88135646510732</v>
+        <v>-33.3993680635528</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>17.46309549482896</v>
+        <v>28.56177793621231</v>
       </c>
       <c r="B142" t="n">
-        <v>7.540821349309276</v>
+        <v>-24.92395559831581</v>
       </c>
       <c r="C142" t="n">
-        <v>-12.2408444664165</v>
+        <v>23.29430142166941</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-22.64772809401655</v>
+        <v>-27.42188388777032</v>
       </c>
       <c r="B143" t="n">
-        <v>-23.20383344195896</v>
+        <v>30.29175676610696</v>
       </c>
       <c r="C143" t="n">
-        <v>-24.41272582806539</v>
+        <v>30.01368203917116</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-5.648076701518999</v>
+        <v>32.21612229549261</v>
       </c>
       <c r="B144" t="n">
-        <v>-12.78723659996978</v>
+        <v>36.59108733261618</v>
       </c>
       <c r="C144" t="n">
-        <v>86.1157673499681</v>
+        <v>-25.97143670241012</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-25.50277817662231</v>
+        <v>-20.65321299915051</v>
       </c>
       <c r="B145" t="n">
-        <v>-31.94465213729317</v>
+        <v>30.5280289597879</v>
       </c>
       <c r="C145" t="n">
-        <v>83.60331350724165</v>
+        <v>31.62709522032358</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>15.70881070966512</v>
+        <v>20.28288701384576</v>
       </c>
       <c r="B146" t="n">
-        <v>-12.95161747269655</v>
+        <v>-19.84284334756277</v>
       </c>
       <c r="C146" t="n">
-        <v>57.87242487647988</v>
+        <v>22.15896660988303</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-16.80752909267391</v>
+        <v>-36.80126380791983</v>
       </c>
       <c r="B147" t="n">
-        <v>40.34098254647016</v>
+        <v>-19.95793760905813</v>
       </c>
       <c r="C147" t="n">
-        <v>14.96357830156579</v>
+        <v>-15.73957013867722</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>31.78442699303143</v>
+        <v>19.59348325747626</v>
       </c>
       <c r="B148" t="n">
-        <v>7.289552043493411</v>
+        <v>-16.80341160758919</v>
       </c>
       <c r="C148" t="n">
-        <v>24.83756771013438</v>
+        <v>40.04073784127961</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>17.64507181795113</v>
+        <v>-33.7156622486501</v>
       </c>
       <c r="B149" t="n">
-        <v>32.12439627335675</v>
+        <v>28.84451544268174</v>
       </c>
       <c r="C149" t="n">
-        <v>-25.50760182036133</v>
+        <v>-33.11677293322177</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>53.38724685440361</v>
+        <v>-22.53624333238914</v>
       </c>
       <c r="B150" t="n">
-        <v>-38.062060642076</v>
+        <v>12.97756907856323</v>
       </c>
       <c r="C150" t="n">
-        <v>10.68394893559265</v>
+        <v>-26.56841717450026</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-17.84754079580593</v>
+        <v>-31.24509276077385</v>
       </c>
       <c r="B151" t="n">
-        <v>-30.53879240844184</v>
+        <v>39.00228296892457</v>
       </c>
       <c r="C151" t="n">
-        <v>-24.02222225179203</v>
+        <v>30.50774257230487</v>
       </c>
     </row>
   </sheetData>
@@ -2139,1107 +2139,1107 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-21.69238668668432</v>
+        <v>-27.42898900756757</v>
       </c>
       <c r="B2" t="n">
-        <v>-15.60616983724269</v>
+        <v>16.18833454048785</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.20497542117213</v>
+        <v>25.16675284406019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-36.21177932624784</v>
+        <v>-23.97324804413929</v>
       </c>
       <c r="B3" t="n">
-        <v>-9.91328363322873</v>
+        <v>-22.45399957623286</v>
       </c>
       <c r="C3" t="n">
-        <v>-40.76481972644388</v>
+        <v>24.8349150888455</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-24.24527670326572</v>
+        <v>-25.02332959472391</v>
       </c>
       <c r="B4" t="n">
-        <v>31.39409927495339</v>
+        <v>-22.0287104864096</v>
       </c>
       <c r="C4" t="n">
-        <v>-18.76959527762728</v>
+        <v>29.9170595967273</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-16.57698190934187</v>
+        <v>-21.37715968740352</v>
       </c>
       <c r="B5" t="n">
-        <v>46.42170742708829</v>
+        <v>21.65888234213634</v>
       </c>
       <c r="C5" t="n">
-        <v>-23.31369289668579</v>
+        <v>9.337764762644181</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>59.89356331808143</v>
+        <v>-14.89223530926864</v>
       </c>
       <c r="B6" t="n">
-        <v>4.077506967133261</v>
+        <v>-27.6663730386508</v>
       </c>
       <c r="C6" t="n">
-        <v>-38.79901963821111</v>
+        <v>41.34544155221229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>65.55386328388225</v>
+        <v>29.18351524139572</v>
       </c>
       <c r="B7" t="n">
-        <v>15.96612343223881</v>
+        <v>12.78021136324266</v>
       </c>
       <c r="C7" t="n">
-        <v>-26.66991673276209</v>
+        <v>22.59683907214831</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-25.09506001052234</v>
+        <v>19.53805536786197</v>
       </c>
       <c r="B8" t="n">
-        <v>1.598279795569917</v>
+        <v>37.25381246630045</v>
       </c>
       <c r="C8" t="n">
-        <v>-26.51754453812094</v>
+        <v>23.37627911403552</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.45551717577345</v>
+        <v>20.17743412482056</v>
       </c>
       <c r="B9" t="n">
-        <v>6.685385968126607</v>
+        <v>13.38507151492668</v>
       </c>
       <c r="C9" t="n">
-        <v>-21.99760594070522</v>
+        <v>30.67673466749742</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>15.07935378746759</v>
+        <v>19.20293103893115</v>
       </c>
       <c r="B10" t="n">
-        <v>-21.56843540037977</v>
+        <v>-36.38202666105571</v>
       </c>
       <c r="C10" t="n">
-        <v>-17.74228406583784</v>
+        <v>22.48005383076432</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>30.05968564522415</v>
+        <v>25.80934154804327</v>
       </c>
       <c r="B11" t="n">
-        <v>-23.6500928837001</v>
+        <v>-21.59282842860458</v>
       </c>
       <c r="C11" t="n">
-        <v>51.70248189272368</v>
+        <v>-22.17305781524509</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-24.43650283623652</v>
+        <v>-18.22721108957659</v>
       </c>
       <c r="B12" t="n">
-        <v>-25.26463974938692</v>
+        <v>-11.13898167466307</v>
       </c>
       <c r="C12" t="n">
-        <v>-33.92490632777589</v>
+        <v>-19.40072538262755</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-13.81425817488266</v>
+        <v>-18.03380605517969</v>
       </c>
       <c r="B13" t="n">
-        <v>13.92377032509196</v>
+        <v>-24.53878610478257</v>
       </c>
       <c r="C13" t="n">
-        <v>-30.58552611764028</v>
+        <v>38.5676729026056</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-29.22689603691697</v>
+        <v>22.81911562336953</v>
       </c>
       <c r="B14" t="n">
-        <v>-20.90056123211965</v>
+        <v>-40.32490633047588</v>
       </c>
       <c r="C14" t="n">
-        <v>-20.88891903045118</v>
+        <v>-39.85230339286581</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.267340841945828</v>
+        <v>-12.23831775986168</v>
       </c>
       <c r="B15" t="n">
-        <v>-27.98359934432586</v>
+        <v>15.96630558748696</v>
       </c>
       <c r="C15" t="n">
-        <v>9.596053972990386</v>
+        <v>30.79980267177636</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-27.68962135949903</v>
+        <v>-24.47199193433664</v>
       </c>
       <c r="B16" t="n">
-        <v>5.884592320144043</v>
+        <v>-11.12024731928272</v>
       </c>
       <c r="C16" t="n">
-        <v>1.980267219844293</v>
+        <v>-20.6111075316326</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.2142540472573124</v>
+        <v>-24.68670881423819</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.834944935913785</v>
+        <v>12.92500062356036</v>
       </c>
       <c r="C17" t="n">
-        <v>-11.50647412577324</v>
+        <v>-16.2731632659252</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>30.14292846609293</v>
+        <v>-29.21951280515373</v>
       </c>
       <c r="B18" t="n">
-        <v>29.28050827059199</v>
+        <v>-33.77508550502794</v>
       </c>
       <c r="C18" t="n">
-        <v>-25.5163351496657</v>
+        <v>29.23588449136942</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-23.71924144531025</v>
+        <v>34.36527866241649</v>
       </c>
       <c r="B19" t="n">
-        <v>-24.7100614844286</v>
+        <v>24.16590196192841</v>
       </c>
       <c r="C19" t="n">
-        <v>-23.00456145467365</v>
+        <v>22.75541691335596</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>32.37405569654604</v>
+        <v>14.12590223507487</v>
       </c>
       <c r="B20" t="n">
-        <v>13.06699277873928</v>
+        <v>26.84446090404905</v>
       </c>
       <c r="C20" t="n">
-        <v>11.43511816792586</v>
+        <v>-35.26569181780123</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-25.07292251283663</v>
+        <v>19.01510365786051</v>
       </c>
       <c r="B21" t="n">
-        <v>-28.93783358923332</v>
+        <v>-22.10026532361515</v>
       </c>
       <c r="C21" t="n">
-        <v>-39.19217633629722</v>
+        <v>8.890360395961848</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-34.81330780639462</v>
+        <v>51.65448962829485</v>
       </c>
       <c r="B22" t="n">
-        <v>-39.31057104316734</v>
+        <v>-18.4698352385982</v>
       </c>
       <c r="C22" t="n">
-        <v>46.87660286178325</v>
+        <v>-16.29193462822044</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-29.87850245153667</v>
+        <v>-20.08521384883466</v>
       </c>
       <c r="B23" t="n">
-        <v>25.07986503464635</v>
+        <v>34.65854425191019</v>
       </c>
       <c r="C23" t="n">
-        <v>77.31983472801117</v>
+        <v>21.6580642099466</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-33.82367161716216</v>
+        <v>25.75262743936761</v>
       </c>
       <c r="B24" t="n">
-        <v>40.82612072663393</v>
+        <v>17.58499155723688</v>
       </c>
       <c r="C24" t="n">
-        <v>-40.27874583424899</v>
+        <v>45.32338745367779</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>16.71638378072336</v>
+        <v>40.94758741365638</v>
       </c>
       <c r="B25" t="n">
-        <v>-9.251793950978698</v>
+        <v>-44.65732865721746</v>
       </c>
       <c r="C25" t="n">
-        <v>-11.08132293040162</v>
+        <v>23.78485327480925</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>31.67510574262199</v>
+        <v>-23.47400119318543</v>
       </c>
       <c r="B26" t="n">
-        <v>-10.28149517710946</v>
+        <v>29.81651115542905</v>
       </c>
       <c r="C26" t="n">
-        <v>11.80415214227509</v>
+        <v>33.77848050149402</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>11.26036649355935</v>
+        <v>30.02535089121386</v>
       </c>
       <c r="B27" t="n">
-        <v>28.41505401916023</v>
+        <v>-39.20307151109546</v>
       </c>
       <c r="C27" t="n">
-        <v>25.91548552997084</v>
+        <v>18.14256914477467</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>39.49228081331422</v>
+        <v>20.51925244377946</v>
       </c>
       <c r="B28" t="n">
-        <v>8.20806582901618</v>
+        <v>32.03611824481609</v>
       </c>
       <c r="C28" t="n">
-        <v>6.071486323256813</v>
+        <v>-34.29006340177745</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>58.03255568788921</v>
+        <v>19.37110846904052</v>
       </c>
       <c r="B29" t="n">
-        <v>-17.09509720025094</v>
+        <v>16.94531219894982</v>
       </c>
       <c r="C29" t="n">
-        <v>-26.65650244363329</v>
+        <v>18.05596249490558</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-30.6554046210451</v>
+        <v>-27.92652235668104</v>
       </c>
       <c r="B30" t="n">
-        <v>41.94448680375456</v>
+        <v>12.66263189817143</v>
       </c>
       <c r="C30" t="n">
-        <v>42.40430860548602</v>
+        <v>-16.37564730256038</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>36.1166901055178</v>
+        <v>-32.7653783807334</v>
       </c>
       <c r="B31" t="n">
-        <v>-19.42306034961149</v>
+        <v>-36.4877195113158</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4305738725347055</v>
+        <v>13.35771092286797</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-33.48098166531378</v>
+        <v>18.43817447960083</v>
       </c>
       <c r="B32" t="n">
-        <v>43.9128575797361</v>
+        <v>29.05399902961966</v>
       </c>
       <c r="C32" t="n">
-        <v>-27.16724998752763</v>
+        <v>27.38487474287311</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>20.52581536157287</v>
+        <v>-11.85874336902896</v>
       </c>
       <c r="B33" t="n">
-        <v>-25.34773097275679</v>
+        <v>-39.97542939092632</v>
       </c>
       <c r="C33" t="n">
-        <v>6.877775476831867</v>
+        <v>-24.48012202918816</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>43.75836086880719</v>
+        <v>-18.97939880584374</v>
       </c>
       <c r="B34" t="n">
-        <v>59.33684613448101</v>
+        <v>17.48490269011103</v>
       </c>
       <c r="C34" t="n">
-        <v>-29.14366390352637</v>
+        <v>-25.8776625811883</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-37.92426972718749</v>
+        <v>31.78385509292054</v>
       </c>
       <c r="B35" t="n">
-        <v>-33.85144380207298</v>
+        <v>23.63041818907197</v>
       </c>
       <c r="C35" t="n">
-        <v>-24.8797667318649</v>
+        <v>35.68110844223848</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3.128465258323166</v>
+        <v>-23.5874485414879</v>
       </c>
       <c r="B36" t="n">
-        <v>49.79094431788427</v>
+        <v>40.17523657418077</v>
       </c>
       <c r="C36" t="n">
-        <v>37.74288378941756</v>
+        <v>-24.84735340124372</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>15.17750737473546</v>
+        <v>16.0113183797064</v>
       </c>
       <c r="B37" t="n">
-        <v>-23.45457840752431</v>
+        <v>-19.3688011712377</v>
       </c>
       <c r="C37" t="n">
-        <v>-21.23099812780068</v>
+        <v>-23.00110317864688</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>53.58572637355947</v>
+        <v>16.90201684882555</v>
       </c>
       <c r="B38" t="n">
-        <v>7.435543343949643</v>
+        <v>30.36358521147151</v>
       </c>
       <c r="C38" t="n">
-        <v>37.44448312050407</v>
+        <v>21.19001973389206</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>23.1631751363344</v>
+        <v>-25.3410788537775</v>
       </c>
       <c r="B39" t="n">
-        <v>-7.023218521259436</v>
+        <v>18.82863806283967</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.18188219919346</v>
+        <v>17.77808177747436</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-23.12385993709553</v>
+        <v>29.28636576788172</v>
       </c>
       <c r="B40" t="n">
-        <v>-21.37496263290601</v>
+        <v>-17.752565600464</v>
       </c>
       <c r="C40" t="n">
-        <v>23.77389520279169</v>
+        <v>33.15653943741064</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>37.42334651919028</v>
+        <v>28.06050860415212</v>
       </c>
       <c r="B41" t="n">
-        <v>9.493841654725905</v>
+        <v>-27.61736217106793</v>
       </c>
       <c r="C41" t="n">
-        <v>-27.40524595847086</v>
+        <v>26.04640237408211</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>27.04958373934249</v>
+        <v>19.71556819215909</v>
       </c>
       <c r="B42" t="n">
-        <v>-25.09217351994802</v>
+        <v>-17.75477117063334</v>
       </c>
       <c r="C42" t="n">
-        <v>35.8539057671648</v>
+        <v>-12.47861242516517</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-19.69596237927554</v>
+        <v>25.87525470107588</v>
       </c>
       <c r="B43" t="n">
-        <v>-15.31551343976907</v>
+        <v>-15.42849088586017</v>
       </c>
       <c r="C43" t="n">
-        <v>-35.71380437063955</v>
+        <v>30.41670486283548</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-30.09727685227487</v>
+        <v>35.02374663991112</v>
       </c>
       <c r="B44" t="n">
-        <v>-36.09078665474647</v>
+        <v>12.54979811094214</v>
       </c>
       <c r="C44" t="n">
-        <v>-21.43254917366053</v>
+        <v>8.524781861557431</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-25.93991719104343</v>
+        <v>34.00270230591809</v>
       </c>
       <c r="B45" t="n">
-        <v>62.44176209284026</v>
+        <v>30.25918011702103</v>
       </c>
       <c r="C45" t="n">
-        <v>-26.65595659382207</v>
+        <v>-19.82850217913134</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-20.48706612828166</v>
+        <v>20.41051617294025</v>
       </c>
       <c r="B46" t="n">
-        <v>-3.818432825339382</v>
+        <v>-18.22253582583873</v>
       </c>
       <c r="C46" t="n">
-        <v>13.08972005001125</v>
+        <v>-26.67549018956028</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-19.64020063027379</v>
+        <v>-31.89890875682553</v>
       </c>
       <c r="B47" t="n">
-        <v>-15.78779209538541</v>
+        <v>29.27166747132749</v>
       </c>
       <c r="C47" t="n">
-        <v>20.72879198972929</v>
+        <v>-27.60808345857216</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-24.55797381788243</v>
+        <v>-27.14654546384918</v>
       </c>
       <c r="B48" t="n">
-        <v>-8.085081073511807</v>
+        <v>-22.87216353561487</v>
       </c>
       <c r="C48" t="n">
-        <v>-13.53883119696957</v>
+        <v>19.85590600586299</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-28.80425086592962</v>
+        <v>4.59200617621143</v>
       </c>
       <c r="B49" t="n">
-        <v>-13.35628377149781</v>
+        <v>34.71798227159201</v>
       </c>
       <c r="C49" t="n">
-        <v>-21.48330421211568</v>
+        <v>-24.90717267258621</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>25.82181654813038</v>
+        <v>-22.31831977064466</v>
       </c>
       <c r="B50" t="n">
-        <v>47.23425811353065</v>
+        <v>22.24011604323502</v>
       </c>
       <c r="C50" t="n">
-        <v>49.08934817883505</v>
+        <v>24.87742436423148</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-30.75001783726884</v>
+        <v>-26.03197452781862</v>
       </c>
       <c r="B51" t="n">
-        <v>57.92450428050442</v>
+        <v>-10.6048042803984</v>
       </c>
       <c r="C51" t="n">
-        <v>-32.27659755926378</v>
+        <v>-29.40438803483806</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>25.94906125543996</v>
+        <v>32.86238830445608</v>
       </c>
       <c r="B52" t="n">
-        <v>-24.55308739043834</v>
+        <v>32.7075714748326</v>
       </c>
       <c r="C52" t="n">
-        <v>-36.80208127253902</v>
+        <v>18.95162995184383</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>53.21405960791373</v>
+        <v>26.57027896312834</v>
       </c>
       <c r="B53" t="n">
-        <v>-20.78133139900931</v>
+        <v>24.06558866367773</v>
       </c>
       <c r="C53" t="n">
-        <v>-30.4596533642713</v>
+        <v>17.67813021296971</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>33.85414386034947</v>
+        <v>-24.64428747350942</v>
       </c>
       <c r="B54" t="n">
-        <v>-22.90507156937496</v>
+        <v>28.35313937900811</v>
       </c>
       <c r="C54" t="n">
-        <v>40.84551222923331</v>
+        <v>39.14639391973203</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-4.157984772020553</v>
+        <v>-25.20728381014546</v>
       </c>
       <c r="B55" t="n">
-        <v>-25.43649075998994</v>
+        <v>-14.38678021023409</v>
       </c>
       <c r="C55" t="n">
-        <v>11.27450877703728</v>
+        <v>16.72828850073611</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-35.52828606204392</v>
+        <v>31.8532725014491</v>
       </c>
       <c r="B56" t="n">
-        <v>9.427884845589553</v>
+        <v>18.02861836302694</v>
       </c>
       <c r="C56" t="n">
-        <v>45.1101368040986</v>
+        <v>-29.27974062460595</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-25.36173015542847</v>
+        <v>-14.93639403705137</v>
       </c>
       <c r="B57" t="n">
-        <v>-40.43764720956646</v>
+        <v>26.74752673131687</v>
       </c>
       <c r="C57" t="n">
-        <v>-10.58090024146497</v>
+        <v>34.55586170697811</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-28.94524935618366</v>
+        <v>17.75975433701896</v>
       </c>
       <c r="B58" t="n">
-        <v>2.817054203356451</v>
+        <v>-27.0824852063231</v>
       </c>
       <c r="C58" t="n">
-        <v>18.00553571607988</v>
+        <v>-19.19577428759935</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-39.90394906968845</v>
+        <v>-13.14279661109186</v>
       </c>
       <c r="B59" t="n">
-        <v>-9.012125480167466</v>
+        <v>-25.04294889203496</v>
       </c>
       <c r="C59" t="n">
-        <v>-17.15610205281286</v>
+        <v>21.62341079148869</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>33.91759177294761</v>
+        <v>27.97394866568045</v>
       </c>
       <c r="B60" t="n">
-        <v>38.54790775691028</v>
+        <v>-32.04428246130622</v>
       </c>
       <c r="C60" t="n">
-        <v>4.085659592447003</v>
+        <v>-35.75830859080961</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>47.89753299238553</v>
+        <v>28.0815051469822</v>
       </c>
       <c r="B61" t="n">
-        <v>34.24251236318814</v>
+        <v>-17.71971290525772</v>
       </c>
       <c r="C61" t="n">
-        <v>-20.62007086559944</v>
+        <v>29.43456539663049</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.37008077493995</v>
+        <v>-13.0490225738646</v>
       </c>
       <c r="B62" t="n">
-        <v>33.02538550476773</v>
+        <v>-30.3076142084557</v>
       </c>
       <c r="C62" t="n">
-        <v>46.41394402593892</v>
+        <v>21.5081391749567</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>35.66359265764635</v>
+        <v>33.39802353239142</v>
       </c>
       <c r="B63" t="n">
-        <v>22.85845534662886</v>
+        <v>-32.92496522598668</v>
       </c>
       <c r="C63" t="n">
-        <v>49.59301323752519</v>
+        <v>-17.66045410909557</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-17.65408505581631</v>
+        <v>-12.86603412973849</v>
       </c>
       <c r="B64" t="n">
-        <v>-29.17318522041806</v>
+        <v>-23.4970417865142</v>
       </c>
       <c r="C64" t="n">
-        <v>-41.94336262498597</v>
+        <v>30.51073982125059</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>42.22178381492707</v>
+        <v>18.86447398245341</v>
       </c>
       <c r="B65" t="n">
-        <v>-31.47335540072645</v>
+        <v>-28.14734834400507</v>
       </c>
       <c r="C65" t="n">
-        <v>4.15283987133307</v>
+        <v>34.75129381360239</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>20.63496083907861</v>
+        <v>24.12130756516996</v>
       </c>
       <c r="B66" t="n">
-        <v>-13.81044614055554</v>
+        <v>-17.72264657250726</v>
       </c>
       <c r="C66" t="n">
-        <v>-22.70114417962508</v>
+        <v>21.96601565970245</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>46.32996712698724</v>
+        <v>-21.98079209090161</v>
       </c>
       <c r="B67" t="n">
-        <v>-29.58281095782623</v>
+        <v>-51.74106084073228</v>
       </c>
       <c r="C67" t="n">
-        <v>1.773141220844654</v>
+        <v>-6.937597532388638</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>32.00434696087885</v>
+        <v>24.7071015928478</v>
       </c>
       <c r="B68" t="n">
-        <v>52.80713192728128</v>
+        <v>30.93946614558539</v>
       </c>
       <c r="C68" t="n">
-        <v>-23.94529457691369</v>
+        <v>29.37681792872792</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-31.96897061275132</v>
+        <v>11.45408426365459</v>
       </c>
       <c r="B69" t="n">
-        <v>-35.56114460795569</v>
+        <v>-27.17566736073715</v>
       </c>
       <c r="C69" t="n">
-        <v>13.25867346560785</v>
+        <v>-20.07074495117675</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-18.5950085694537</v>
+        <v>31.35772687067955</v>
       </c>
       <c r="B70" t="n">
-        <v>27.36554052857401</v>
+        <v>32.39909394624163</v>
       </c>
       <c r="C70" t="n">
-        <v>-6.677592433785586</v>
+        <v>-35.38907625483153</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-4.775325432092383</v>
+        <v>-25.97426164615146</v>
       </c>
       <c r="B71" t="n">
-        <v>52.94952114329578</v>
+        <v>-27.67304975142875</v>
       </c>
       <c r="C71" t="n">
-        <v>12.88471399326989</v>
+        <v>-25.76274457470045</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-22.31827021333997</v>
+        <v>35.27081886331632</v>
       </c>
       <c r="B72" t="n">
-        <v>-22.67106435349612</v>
+        <v>-47.780876984057</v>
       </c>
       <c r="C72" t="n">
-        <v>-12.83878186637359</v>
+        <v>17.51800948873095</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-30.42942961845746</v>
+        <v>15.9621253574872</v>
       </c>
       <c r="B73" t="n">
-        <v>26.33571686245699</v>
+        <v>-29.3243128710105</v>
       </c>
       <c r="C73" t="n">
-        <v>-29.92824475510404</v>
+        <v>9.666415271889266</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-35.53294891302967</v>
+        <v>-11.27374347026698</v>
       </c>
       <c r="B74" t="n">
-        <v>45.42371344711314</v>
+        <v>31.78221774817752</v>
       </c>
       <c r="C74" t="n">
-        <v>-43.46508687044263</v>
+        <v>22.60498452081379</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>20.27340937825524</v>
+        <v>23.1131197915544</v>
       </c>
       <c r="B75" t="n">
-        <v>-32.31649404918555</v>
+        <v>-28.26471797176901</v>
       </c>
       <c r="C75" t="n">
-        <v>-18.64362304672392</v>
+        <v>21.06877022760102</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-16.30137450466849</v>
+        <v>24.77500701383358</v>
       </c>
       <c r="B76" t="n">
-        <v>44.98405396227153</v>
+        <v>27.56702343271667</v>
       </c>
       <c r="C76" t="n">
-        <v>58.39716053418135</v>
+        <v>-25.20919543146604</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-23.1296164039363</v>
+        <v>-24.21092131314657</v>
       </c>
       <c r="B77" t="n">
-        <v>-29.10973759873756</v>
+        <v>-28.34645939780068</v>
       </c>
       <c r="C77" t="n">
-        <v>-20.56749685032933</v>
+        <v>16.93990748268107</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>22.94162474892127</v>
+        <v>18.49856584734941</v>
       </c>
       <c r="B78" t="n">
-        <v>-31.16543106472133</v>
+        <v>-35.48455448243978</v>
       </c>
       <c r="C78" t="n">
-        <v>-11.83341973855886</v>
+        <v>32.25441118114198</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-27.04178251860411</v>
+        <v>24.74776788431291</v>
       </c>
       <c r="B79" t="n">
-        <v>-23.31873277788764</v>
+        <v>-29.66962250699162</v>
       </c>
       <c r="C79" t="n">
-        <v>-25.15444963078118</v>
+        <v>27.50814900080606</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-24.58797799752965</v>
+        <v>24.2650797299398</v>
       </c>
       <c r="B80" t="n">
-        <v>5.330016926572375</v>
+        <v>-15.21610326694988</v>
       </c>
       <c r="C80" t="n">
-        <v>38.07236002090694</v>
+        <v>-26.46634279894955</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>26.44345397573433</v>
+        <v>-19.22548284852203</v>
       </c>
       <c r="B81" t="n">
-        <v>-25.04118201338557</v>
+        <v>-27.39433664164284</v>
       </c>
       <c r="C81" t="n">
-        <v>-18.28268490251995</v>
+        <v>-15.99293838797872</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.38906918343748</v>
+        <v>-18.12372365028307</v>
       </c>
       <c r="B82" t="n">
-        <v>22.54953767445263</v>
+        <v>-12.96511993018258</v>
       </c>
       <c r="C82" t="n">
-        <v>-5.738763439270907</v>
+        <v>-21.15344611640106</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>17.17790142995099</v>
+        <v>-15.01016239010528</v>
       </c>
       <c r="B83" t="n">
-        <v>-34.26977492814728</v>
+        <v>-26.65120694382678</v>
       </c>
       <c r="C83" t="n">
-        <v>30.94732994180702</v>
+        <v>-16.77475070626871</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-15.59662148932783</v>
+        <v>-33.74880348083979</v>
       </c>
       <c r="B84" t="n">
-        <v>-8.537990286803748</v>
+        <v>-36.13624730453184</v>
       </c>
       <c r="C84" t="n">
-        <v>-28.34330578088069</v>
+        <v>26.31241839325976</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>54.54053896536949</v>
+        <v>-24.68840178859354</v>
       </c>
       <c r="B85" t="n">
-        <v>22.08754417732363</v>
+        <v>33.89703924539693</v>
       </c>
       <c r="C85" t="n">
-        <v>-21.3949876914921</v>
+        <v>21.14622079192793</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>37.99996611256029</v>
+        <v>22.25893858601057</v>
       </c>
       <c r="B86" t="n">
-        <v>4.032452907132937</v>
+        <v>-23.40771068788523</v>
       </c>
       <c r="C86" t="n">
-        <v>-27.81026297141347</v>
+        <v>30.44931370635637</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>10.37797435900612</v>
+        <v>-24.07262223949673</v>
       </c>
       <c r="B87" t="n">
-        <v>-34.95605797971189</v>
+        <v>21.33741647590906</v>
       </c>
       <c r="C87" t="n">
-        <v>-26.55347377160802</v>
+        <v>38.58579771205851</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>7.800089183825804</v>
+        <v>-21.57579295215878</v>
       </c>
       <c r="B88" t="n">
-        <v>60.03691085415406</v>
+        <v>12.84888422790015</v>
       </c>
       <c r="C88" t="n">
-        <v>65.19623581407029</v>
+        <v>-30.57961456482854</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-17.5939671611592</v>
+        <v>-18.92829206850013</v>
       </c>
       <c r="B89" t="n">
-        <v>-25.03959834019965</v>
+        <v>22.41236098096545</v>
       </c>
       <c r="C89" t="n">
-        <v>-19.76486462963138</v>
+        <v>17.46546220357711</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-33.8297412733658</v>
+        <v>-38.72665131322147</v>
       </c>
       <c r="B90" t="n">
-        <v>-16.30971930545105</v>
+        <v>-25.9703546658349</v>
       </c>
       <c r="C90" t="n">
-        <v>-19.0018908763934</v>
+        <v>43.84069574016795</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-27.35854868726315</v>
+        <v>-25.82140958645439</v>
       </c>
       <c r="B91" t="n">
-        <v>71.77769632693895</v>
+        <v>32.45640957166461</v>
       </c>
       <c r="C91" t="n">
-        <v>37.13185087635649</v>
+        <v>22.30223084781078</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>14.8767402759147</v>
+        <v>-30.63413098208855</v>
       </c>
       <c r="B92" t="n">
-        <v>-35.04305906606501</v>
+        <v>-29.71015312749571</v>
       </c>
       <c r="C92" t="n">
-        <v>12.65662568235457</v>
+        <v>43.38204896206854</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-42.68495576492493</v>
+        <v>27.18365179426562</v>
       </c>
       <c r="B93" t="n">
-        <v>-29.55514549052389</v>
+        <v>16.88190363997213</v>
       </c>
       <c r="C93" t="n">
-        <v>18.0070543927526</v>
+        <v>-29.88276946197168</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-31.11072764105215</v>
+        <v>-26.18432672641355</v>
       </c>
       <c r="B94" t="n">
-        <v>-35.60485607772093</v>
+        <v>-9.98438939495354</v>
       </c>
       <c r="C94" t="n">
-        <v>43.39587005993455</v>
+        <v>-34.5731310395274</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-16.08411009122573</v>
+        <v>-12.94133072907649</v>
       </c>
       <c r="B95" t="n">
-        <v>2.599518141897864</v>
+        <v>-32.92763041933919</v>
       </c>
       <c r="C95" t="n">
-        <v>27.86635335498793</v>
+        <v>-20.54989988786523</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>47.23941512699783</v>
+        <v>23.56413391154847</v>
       </c>
       <c r="B96" t="n">
-        <v>-33.40224204340426</v>
+        <v>-35.68983560234805</v>
       </c>
       <c r="C96" t="n">
-        <v>-26.56976013396557</v>
+        <v>-21.16951487801919</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>28.77922455567952</v>
+        <v>-17.10709999017613</v>
       </c>
       <c r="B97" t="n">
-        <v>63.06411712243665</v>
+        <v>28.11537106661097</v>
       </c>
       <c r="C97" t="n">
-        <v>23.8227245401471</v>
+        <v>-32.30097566778468</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-23.56966860820937</v>
+        <v>-32.61650092799206</v>
       </c>
       <c r="B98" t="n">
-        <v>-36.26116846814974</v>
+        <v>-13.62652161540263</v>
       </c>
       <c r="C98" t="n">
-        <v>-29.39795731674008</v>
+        <v>-15.82281785419844</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>28.9528005884976</v>
+        <v>-33.09706224506178</v>
       </c>
       <c r="B99" t="n">
-        <v>9.630126602745596</v>
+        <v>-18.98197674591501</v>
       </c>
       <c r="C99" t="n">
-        <v>-42.35995828444516</v>
+        <v>30.46340793728448</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.35442335291112</v>
+        <v>-23.52957908106702</v>
       </c>
       <c r="B100" t="n">
-        <v>53.36578314648395</v>
+        <v>-27.41432476540842</v>
       </c>
       <c r="C100" t="n">
-        <v>-31.6855954984117</v>
+        <v>-24.79184211145146</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-22.72836276837102</v>
+        <v>-20.79888381057925</v>
       </c>
       <c r="B101" t="n">
-        <v>-32.67214268131486</v>
+        <v>33.28581177045825</v>
       </c>
       <c r="C101" t="n">
-        <v>53.62544868822326</v>
+        <v>28.36931470557286</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>29.01877881389179</v>
+        <v>-11.46459314742972</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>30.6786469857941</v>
+        <v>15.18301270537492</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-29.1816031856984</v>
+        <v>-17.19786169271737</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-25.66577910278238</v>
+        <v>-30.4718891719364</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-33.21178514446822</v>
+        <v>12.69666386441703</v>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -3294,7 +3294,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-33.54703882707773</v>
+        <v>-38.60562253195856</v>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-26.30576159342511</v>
+        <v>21.23544190806194</v>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>33.89906012226979</v>
+        <v>-20.83757204282585</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-36.15461588726857</v>
+        <v>8.480311476384216</v>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -3338,7 +3338,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>38.72414786150027</v>
+        <v>-24.98642004428408</v>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-24.45910346504681</v>
+        <v>-31.95494750118377</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-44.85146453121266</v>
+        <v>-27.77154650437209</v>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>8.332736524653543</v>
+        <v>23.86135687382646</v>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>29.49722202100744</v>
+        <v>31.49694594276906</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>8.872295316622436</v>
+        <v>-27.47498009993684</v>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -3404,7 +3404,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>3.436878481697267</v>
+        <v>24.68813997581677</v>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-21.56153649544641</v>
+        <v>-23.92551946516052</v>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>12.55572037228263</v>
+        <v>24.42068604856983</v>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>42.01460239456922</v>
+        <v>-13.83238869707923</v>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -3448,7 +3448,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>17.7574255766006</v>
+        <v>24.79330983564066</v>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -3459,7 +3459,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>52.37903735684885</v>
+        <v>29.86168952083151</v>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-30.08668887366712</v>
+        <v>32.53151742109313</v>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>47.77412929241057</v>
+        <v>-11.26719865867631</v>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>39.36483169198264</v>
+        <v>50.22986160812237</v>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-25.03513303526167</v>
+        <v>-25.75076465371633</v>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-11.6901875321264</v>
+        <v>-11.04762879275535</v>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>29.43785182697138</v>
+        <v>15.73316378369322</v>
       </c>
       <c r="B128" t="n">
         <v>0</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>47.4962964452373</v>
+        <v>15.88601425702074</v>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>31.92006313545888</v>
+        <v>21.74554392551067</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -3558,7 +3558,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-16.13587252083791</v>
+        <v>-24.75152245610258</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-14.29787814752733</v>
+        <v>-21.49879521041465</v>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>64.50924323523959</v>
+        <v>-29.27738223978654</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>14.00576828167314</v>
+        <v>32.45513131230061</v>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>20.08171974211362</v>
+        <v>29.70848038910885</v>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>40.78050260717953</v>
+        <v>-34.7533120464235</v>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>48.25104275763067</v>
+        <v>-13.1009609681048</v>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-29.57117895668454</v>
+        <v>23.10804553825168</v>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-26.03480512641384</v>
+        <v>25.38178776789518</v>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>22.53339422860958</v>
+        <v>-21.2971177046533</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -3668,7 +3668,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>73.66296682812106</v>
+        <v>31.88332802798144</v>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-14.00964730598924</v>
+        <v>-41.0149077285587</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>48.22302522445388</v>
+        <v>34.91632294298874</v>
       </c>
       <c r="B143" t="n">
         <v>0</v>
@@ -3701,7 +3701,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-14.49672703367307</v>
+        <v>26.41956534578022</v>
       </c>
       <c r="B144" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-31.64887234531206</v>
+        <v>37.72735369683513</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>37.3484440005403</v>
+        <v>16.16583546637631</v>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>4.95569376712221</v>
+        <v>-13.38937261735342</v>
       </c>
       <c r="B147" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>45.41861653817992</v>
+        <v>-40.18565279838256</v>
       </c>
       <c r="B148" t="n">
         <v>0</v>
@@ -3756,7 +3756,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>18.1454516202102</v>
+        <v>30.01320439726007</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-41.75523972682561</v>
+        <v>23.27269329399853</v>
       </c>
       <c r="B150" t="n">
         <v>0</v>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>7.245326407733187</v>
+        <v>25.35701963884802</v>
       </c>
       <c r="B151" t="n">
         <v>0</v>
